--- a/biology/Botanique/Ipomoea_cordatotriloba/Ipomoea_cordatotriloba.xlsx
+++ b/biology/Botanique/Ipomoea_cordatotriloba/Ipomoea_cordatotriloba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipomoea cordatotriloba est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire du  continent américain. C'est l'une des 13 espèces sauvages classées dans la série Batatas (Ipomoea subg. Eriospermum sect. Eriospermum)[2]. Ce complexe d'espèces diploïde (2n=2x=30) et tétraploïde (2n=4x=60) est un parent sauvage de la patate douce (Ipomoea batatas).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea cordatotriloba est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire du  continent américain. C'est l'une des 13 espèces sauvages classées dans la série Batatas (Ipomoea subg. Eriospermum sect. Eriospermum). Ce complexe d'espèces diploïde (2n=2x=30) et tétraploïde (2n=4x=60) est un parent sauvage de la patate douce (Ipomoea batatas).
 </t>
         </is>
       </c>
@@ -513,11 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (1 octobre 2019)[1] : 
-Ipomoea cordatotriloba var. australis (O'Donell) D.F. Austin
-Liste des variétés
-Selon Tropicos                                           (1 octobre 2019)[3] (Attention liste brute contenant possiblement des synonymes) :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (1 octobre 2019) : 
+Ipomoea cordatotriloba var. australis (O'Donell) D.F. Austin</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ipomoea_cordatotriloba</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipomoea_cordatotriloba</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (1 octobre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Ipomoea cordatotriloba var. australis (O'Donell) D.F. Austin
 Ipomoea cordatotriloba var. cordatotriloba
 Ipomoea cordatotriloba var. torreyana (A. Gray) D.F. Austin</t>
